--- a/Rml.CoNexus.Core/Artifacts/Example_Matrices.xlsx
+++ b/Rml.CoNexus.Core/Artifacts/Example_Matrices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmcnamee\source\repos\RML\Rml.CoNexus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmcnamee\source\repos\RML\Rml.CoNexus\Rml.CoNexus.Core\Artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCD8A4F-734B-4650-8095-9599E4E06378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81D7AD1-E2E5-4A91-9DF3-B602007D7E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17172" yWindow="9768" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{FE321F11-932C-4684-8119-2395D6E8CA28}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Functional" sheetId="4" r:id="rId2"/>
     <sheet name="Selection" sheetId="1" r:id="rId3"/>
     <sheet name="Balance" sheetId="2" r:id="rId4"/>
+    <sheet name="_lists" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="costSsf">Selection!$U$32</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="101">
   <si>
     <t>The system builds a Matrix for each participant, then averages them together for a group result.</t>
   </si>
@@ -297,6 +298,60 @@
   <si>
     <t>Enter Criteria</t>
   </si>
+  <si>
+    <t>"Current"</t>
+  </si>
+  <si>
+    <t>Alternative</t>
+  </si>
+  <si>
+    <t>Design the ideal ?</t>
+  </si>
+  <si>
+    <t>Performance/Satisfaction</t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t>❶</t>
+  </si>
+  <si>
+    <t>❸</t>
+  </si>
+  <si>
+    <t>❹</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>2 = Existing want/need</t>
+  </si>
+  <si>
+    <t>1 = New want/need</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Practically Perfect</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Below average</t>
+  </si>
+  <si>
+    <t>Above average</t>
+  </si>
+  <si>
+    <t>None or very little</t>
+  </si>
 </sst>
 </file>
 
@@ -309,7 +364,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,8 +580,35 @@
       <name val="Arial Nova Cond"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Gill Sans MT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,8 +669,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF033D93"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -832,13 +926,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1299,92 +1423,504 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="47"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="47"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="47"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1392,12 +1928,16 @@
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF033D93"/>
       <color rgb="FFDDF6FF"/>
-      <color rgb="FF033D93"/>
       <color rgb="FFF28282"/>
       <color rgb="FFC5CF87"/>
       <color rgb="FFFFFFCC"/>
@@ -2852,6 +3392,27 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{565EC131-B3B7-42A7-AA27-2B2DDFD11B30}" name="scale6" displayName="scale6" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7" xr:uid="{565EC131-B3B7-42A7-AA27-2B2DDFD11B30}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{82EFD398-0BFD-48F4-AF95-31065A016032}" name="Performance/Satisfaction" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{F1F0E817-D91C-4F32-932E-5F76ED9F4FA8}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05E78428-1368-4292-BCE0-334029BA7AEC}" name="scale2" displayName="scale2" ref="D1:D3" totalsRowShown="0">
+  <autoFilter ref="D1:D3" xr:uid="{05E78428-1368-4292-BCE0-334029BA7AEC}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{47924D26-4EA1-4220-AFD0-76DD181DB4D5}" name="History"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3199,13 +3760,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="123" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
       <c r="T1" s="124"/>
       <c r="AA1" s="125"/>
     </row>
@@ -3299,92 +3860,92 @@
       <c r="E7" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="154"/>
-      <c r="L7" s="154"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="171"/>
+      <c r="K7" s="171"/>
+      <c r="L7" s="171"/>
       <c r="T7" s="124"/>
       <c r="AA7" s="125"/>
     </row>
     <row r="8" spans="1:28" s="6" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="163" t="s">
+      <c r="A8" s="157" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="163"/>
+      <c r="B8" s="157"/>
       <c r="C8" s="13"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="155">
+      <c r="F8" s="167">
         <v>1</v>
       </c>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155">
+      <c r="G8" s="167"/>
+      <c r="H8" s="167">
         <v>2</v>
       </c>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155">
+      <c r="I8" s="167"/>
+      <c r="J8" s="167">
         <v>3</v>
       </c>
-      <c r="K8" s="155"/>
-      <c r="L8" s="155">
+      <c r="K8" s="167"/>
+      <c r="L8" s="167">
         <v>4</v>
       </c>
-      <c r="M8" s="155"/>
-      <c r="N8" s="155">
+      <c r="M8" s="167"/>
+      <c r="N8" s="167">
         <v>5</v>
       </c>
-      <c r="O8" s="155"/>
-      <c r="P8" s="155">
+      <c r="O8" s="167"/>
+      <c r="P8" s="167">
         <v>6</v>
       </c>
-      <c r="Q8" s="155"/>
-      <c r="R8" s="155">
+      <c r="Q8" s="167"/>
+      <c r="R8" s="167">
         <v>7</v>
       </c>
-      <c r="S8" s="155"/>
+      <c r="S8" s="167"/>
       <c r="AA8" s="105"/>
     </row>
     <row r="9" spans="1:28" customFormat="1" ht="62.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="161" t="s">
+      <c r="A9" s="155" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="162"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="156"/>
-      <c r="M9" s="156"/>
-      <c r="N9" s="156"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="156"/>
-      <c r="S9" s="156"/>
-      <c r="T9" s="169" t="s">
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="168"/>
+      <c r="K9" s="168"/>
+      <c r="L9" s="168"/>
+      <c r="M9" s="168"/>
+      <c r="N9" s="168"/>
+      <c r="O9" s="168"/>
+      <c r="P9" s="168"/>
+      <c r="Q9" s="168"/>
+      <c r="R9" s="168"/>
+      <c r="S9" s="168"/>
+      <c r="T9" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="U9" s="170"/>
-      <c r="V9" s="171" t="s">
+      <c r="U9" s="165"/>
+      <c r="V9" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="W9" s="171"/>
-      <c r="X9" s="171"/>
-      <c r="Y9" s="171"/>
-      <c r="Z9" s="171" t="s">
+      <c r="W9" s="166"/>
+      <c r="X9" s="166"/>
+      <c r="Y9" s="166"/>
+      <c r="Z9" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="AA9" s="171"/>
+      <c r="AA9" s="166"/>
       <c r="AB9" s="70" t="s">
         <v>32</v>
       </c>
@@ -3555,10 +4116,10 @@
       <c r="B13" s="121" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="168" t="s">
+      <c r="D13" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="168"/>
+      <c r="E13" s="163"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
@@ -3868,41 +4429,41 @@
       <c r="E19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="159">
+      <c r="F19" s="162">
         <f>SUM(F11:F16)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159">
+      <c r="G19" s="162"/>
+      <c r="H19" s="162">
         <f>SUM(H11:H16)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="159"/>
-      <c r="J19" s="159">
+      <c r="I19" s="162"/>
+      <c r="J19" s="162">
         <f>SUM(J11:J16)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="159"/>
-      <c r="L19" s="159">
+      <c r="K19" s="162"/>
+      <c r="L19" s="162">
         <f>SUM(L11:L16)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="159"/>
-      <c r="N19" s="159">
+      <c r="M19" s="162"/>
+      <c r="N19" s="162">
         <f>SUM(N11:N16)</f>
         <v>0</v>
       </c>
-      <c r="O19" s="159"/>
-      <c r="P19" s="159">
+      <c r="O19" s="162"/>
+      <c r="P19" s="162">
         <f>SUM(P11:P16)</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="159"/>
-      <c r="R19" s="159">
+      <c r="Q19" s="162"/>
+      <c r="R19" s="162">
         <f>SUM(R11:R16)</f>
         <v>0</v>
       </c>
-      <c r="S19" s="159"/>
+      <c r="S19" s="162"/>
     </row>
     <row r="20" spans="1:34" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="120">
@@ -3970,34 +4531,34 @@
       <c r="E22" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="159">
-        <v>0</v>
-      </c>
-      <c r="G22" s="159"/>
-      <c r="H22" s="159">
-        <v>0</v>
-      </c>
-      <c r="I22" s="159"/>
-      <c r="J22" s="159">
-        <v>0</v>
-      </c>
-      <c r="K22" s="159"/>
-      <c r="L22" s="159">
-        <v>0</v>
-      </c>
-      <c r="M22" s="159"/>
-      <c r="N22" s="159">
-        <v>0</v>
-      </c>
-      <c r="O22" s="159"/>
-      <c r="P22" s="159">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="159"/>
-      <c r="R22" s="159">
-        <v>0</v>
-      </c>
-      <c r="S22" s="159"/>
+      <c r="F22" s="162">
+        <v>0</v>
+      </c>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162">
+        <v>0</v>
+      </c>
+      <c r="I22" s="162"/>
+      <c r="J22" s="162">
+        <v>0</v>
+      </c>
+      <c r="K22" s="162"/>
+      <c r="L22" s="162">
+        <v>0</v>
+      </c>
+      <c r="M22" s="162"/>
+      <c r="N22" s="162">
+        <v>0</v>
+      </c>
+      <c r="O22" s="162"/>
+      <c r="P22" s="162">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="162"/>
+      <c r="R22" s="162">
+        <v>0</v>
+      </c>
+      <c r="S22" s="162"/>
       <c r="AD22" s="134"/>
     </row>
     <row r="23" spans="1:34" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4066,11 +4627,11 @@
       <c r="Z24" s="28"/>
       <c r="AA24" s="112"/>
       <c r="AB24" s="27"/>
-      <c r="AD24" s="164"/>
-      <c r="AE24" s="164"/>
-      <c r="AF24" s="164"/>
-      <c r="AG24" s="164"/>
-      <c r="AH24" s="164"/>
+      <c r="AD24" s="158"/>
+      <c r="AE24" s="158"/>
+      <c r="AF24" s="158"/>
+      <c r="AG24" s="158"/>
+      <c r="AH24" s="158"/>
     </row>
     <row r="25" spans="1:34" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="118">
@@ -4233,20 +4794,20 @@
         <f t="shared" ref="T29" si="7">G29+I29+K29+M29+O29+Q29+S29</f>
         <v>0</v>
       </c>
-      <c r="U29" s="165">
+      <c r="U29" s="159">
         <f>worthsf*T29</f>
         <v>0</v>
       </c>
-      <c r="V29" s="166"/>
+      <c r="V29" s="160"/>
       <c r="W29" s="61">
         <f>W25</f>
         <v>0</v>
       </c>
-      <c r="X29" s="167" t="s">
+      <c r="X29" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="Y29" s="167"/>
-      <c r="Z29" s="167"/>
+      <c r="Y29" s="161"/>
+      <c r="Z29" s="161"/>
       <c r="AA29" s="62">
         <v>1</v>
       </c>
@@ -4324,37 +4885,37 @@
       <c r="B38" s="122"/>
     </row>
     <row r="39" spans="1:14" ht="21.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="H39" s="157" t="s">
+      <c r="H39" s="169" t="s">
         <v>42</v>
       </c>
-      <c r="I39" s="157"/>
-      <c r="J39" s="157"/>
-      <c r="K39" s="157"/>
-      <c r="L39" s="157"/>
-      <c r="M39" s="157"/>
-      <c r="N39" s="157"/>
+      <c r="I39" s="169"/>
+      <c r="J39" s="169"/>
+      <c r="K39" s="169"/>
+      <c r="L39" s="169"/>
+      <c r="M39" s="169"/>
+      <c r="N39" s="169"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H40" s="158" t="s">
+      <c r="H40" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="I40" s="158"/>
-      <c r="J40" s="158"/>
-      <c r="K40" s="158"/>
-      <c r="L40" s="158"/>
-      <c r="M40" s="158"/>
-      <c r="N40" s="158"/>
+      <c r="I40" s="170"/>
+      <c r="J40" s="170"/>
+      <c r="K40" s="170"/>
+      <c r="L40" s="170"/>
+      <c r="M40" s="170"/>
+      <c r="N40" s="170"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H41" s="158" t="s">
+      <c r="H41" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="I41" s="158"/>
-      <c r="J41" s="158"/>
-      <c r="K41" s="158"/>
-      <c r="L41" s="158"/>
-      <c r="M41" s="158"/>
-      <c r="N41" s="158"/>
+      <c r="I41" s="170"/>
+      <c r="J41" s="170"/>
+      <c r="K41" s="170"/>
+      <c r="L41" s="170"/>
+      <c r="M41" s="170"/>
+      <c r="N41" s="170"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H42" s="3" t="s">
@@ -4365,6 +4926,32 @@
     <row r="48" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="H39:N39"/>
+    <mergeCell ref="H40:N40"/>
+    <mergeCell ref="H41:N41"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A8:B8"/>
@@ -4381,32 +4968,6 @@
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H39:N39"/>
-    <mergeCell ref="H40:N40"/>
-    <mergeCell ref="H41:N41"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:C6">
     <cfRule type="colorScale" priority="2">
@@ -4432,7 +4993,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25 F25 J25 L25 N25 P25 R25">
+  <conditionalFormatting sqref="F25 H25 J25 L25 N25 P25 R25">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -4456,8 +5017,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T11 T29 T14:T17">
-    <cfRule type="colorScale" priority="19">
+  <conditionalFormatting sqref="Z28 H39">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4475,6 +5036,18 @@
         <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T11 T29 T14:T17">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -4642,18 +5215,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z28 H39">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AA14:AA18 AA11">
     <cfRule type="colorScale" priority="389">
       <colorScale>
@@ -4685,1464 +5246,925 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A725558C-A09C-42A5-A7C2-21AEDCD8EEBD}">
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="3" customWidth="1"/>
-    <col min="4" max="17" width="8.88671875" style="3"/>
-    <col min="18" max="18" width="8.88671875" style="6"/>
-    <col min="19" max="19" width="5.109375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="6.88671875" style="3" customWidth="1"/>
-    <col min="21" max="21" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.21875" style="3" customWidth="1"/>
-    <col min="23" max="23" width="7.33203125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="13" style="3" customWidth="1"/>
-    <col min="25" max="25" width="6.77734375" style="104" customWidth="1"/>
-    <col min="26" max="26" width="18.44140625" style="3" customWidth="1"/>
-    <col min="27" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="13.88671875" style="185" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="184" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="185" customWidth="1"/>
+    <col min="4" max="17" width="8.88671875" style="185"/>
+    <col min="18" max="18" width="8.88671875" style="184"/>
+    <col min="19" max="19" width="5.109375" style="185" customWidth="1"/>
+    <col min="20" max="20" width="6.88671875" style="185" customWidth="1"/>
+    <col min="21" max="21" width="12.5546875" style="185" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.21875" style="185" customWidth="1"/>
+    <col min="23" max="23" width="7.33203125" style="185" customWidth="1"/>
+    <col min="24" max="24" width="13" style="185" customWidth="1"/>
+    <col min="25" max="25" width="6.77734375" style="186" customWidth="1"/>
+    <col min="26" max="26" width="18.44140625" style="185" customWidth="1"/>
+    <col min="27" max="16384" width="8.88671875" style="185"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="183" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="T2" s="146"/>
+      <c r="T2" s="187"/>
     </row>
     <row r="3" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="B3" s="188" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="89">
+      <c r="C3" s="189">
         <v>4</v>
       </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="T3" s="147"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="T3" s="191"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="B4" s="192" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="90">
+      <c r="C4" s="193">
         <v>3</v>
       </c>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="T4" s="148"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="190"/>
+      <c r="T4" s="194"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
+      <c r="B5" s="192" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="91">
+      <c r="C5" s="195">
         <v>2</v>
       </c>
-      <c r="T5" s="149"/>
+      <c r="T5" s="196"/>
     </row>
     <row r="6" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="86" t="s">
+      <c r="B6" s="197" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="92">
+      <c r="C6" s="198">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="C7" s="4" t="s">
+      <c r="A7" s="257"/>
+      <c r="B7" s="258"/>
+    </row>
+    <row r="8" spans="1:26" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="265" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="256" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="182" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="182"/>
-    </row>
-    <row r="8" spans="1:26" s="6" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="155">
+      <c r="C8" s="256"/>
+      <c r="D8" s="285" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="285"/>
+      <c r="F8" s="285"/>
+      <c r="G8" s="285"/>
+      <c r="H8" s="285"/>
+      <c r="I8" s="285"/>
+      <c r="J8" s="285"/>
+    </row>
+    <row r="9" spans="1:26" s="184" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="199"/>
+      <c r="B9" s="201"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="202">
         <v>1</v>
       </c>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155">
+      <c r="E9" s="202"/>
+      <c r="F9" s="202">
         <v>2</v>
       </c>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155">
+      <c r="G9" s="202"/>
+      <c r="H9" s="202">
         <v>3</v>
       </c>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155">
+      <c r="I9" s="202"/>
+      <c r="J9" s="202">
         <v>4</v>
       </c>
-      <c r="K8" s="155"/>
-      <c r="L8" s="155">
+      <c r="K9" s="202"/>
+      <c r="L9" s="202">
         <v>5</v>
       </c>
-      <c r="M8" s="155"/>
-      <c r="N8" s="155">
+      <c r="M9" s="202"/>
+      <c r="N9" s="202">
         <v>6</v>
       </c>
-      <c r="O8" s="155"/>
-      <c r="P8" s="155">
+      <c r="O9" s="202"/>
+      <c r="P9" s="202">
         <v>7</v>
       </c>
-      <c r="Q8" s="155"/>
-      <c r="Y8" s="105"/>
-    </row>
-    <row r="9" spans="1:26" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4" t="s">
+      <c r="Q9" s="202"/>
+      <c r="Y9" s="203"/>
+    </row>
+    <row r="10" spans="1:26" s="211" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="264" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="205"/>
+      <c r="C10" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="156"/>
-      <c r="M9" s="156"/>
-      <c r="N9" s="156"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="169" t="s">
+      <c r="D10" s="206"/>
+      <c r="E10" s="206"/>
+      <c r="F10" s="206"/>
+      <c r="G10" s="206"/>
+      <c r="H10" s="206"/>
+      <c r="I10" s="206"/>
+      <c r="J10" s="206"/>
+      <c r="K10" s="206"/>
+      <c r="L10" s="206"/>
+      <c r="M10" s="206"/>
+      <c r="N10" s="206"/>
+      <c r="O10" s="206"/>
+      <c r="P10" s="206"/>
+      <c r="Q10" s="206"/>
+      <c r="R10" s="207" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="170"/>
-      <c r="T9" s="171" t="s">
+      <c r="S10" s="208"/>
+      <c r="T10" s="209" t="s">
         <v>19</v>
       </c>
-      <c r="U9" s="171"/>
-      <c r="V9" s="171"/>
-      <c r="W9" s="171"/>
-      <c r="X9" s="171" t="s">
+      <c r="U10" s="209"/>
+      <c r="V10" s="209"/>
+      <c r="W10" s="209"/>
+      <c r="X10" s="209" t="s">
         <v>20</v>
       </c>
-      <c r="Y9" s="171"/>
-      <c r="Z9" s="70" t="s">
+      <c r="Y10" s="209"/>
+      <c r="Z10" s="210" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:26" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="24" t="s">
+    <row r="11" spans="1:26" s="211" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="204"/>
+      <c r="B11" s="225" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="225"/>
+      <c r="D11" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E11" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F11" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G11" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H11" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I11" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J11" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K11" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L11" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="24" t="s">
+      <c r="M11" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="24" t="s">
+      <c r="N11" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="24" t="s">
+      <c r="O11" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="24" t="s">
+      <c r="P11" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="Q11" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="93" t="s">
+      <c r="R11" s="213"/>
+      <c r="S11" s="213"/>
+      <c r="T11" s="213"/>
+      <c r="U11" s="213"/>
+      <c r="V11" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="106"/>
-      <c r="Z10" s="5"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="18" t="s">
+      <c r="W11" s="213"/>
+      <c r="X11" s="213"/>
+      <c r="Y11" s="215"/>
+      <c r="Z11" s="216"/>
+    </row>
+    <row r="12" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="259" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="249" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="173">
-        <v>0</v>
-      </c>
-      <c r="E11" s="173">
-        <f>D11*D$28</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="173">
-        <v>0</v>
-      </c>
-      <c r="G11" s="173">
-        <f>F11*F$28</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="173">
-        <v>0</v>
-      </c>
-      <c r="I11" s="173">
-        <f>H11*H$28</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="173">
-        <v>0</v>
-      </c>
-      <c r="K11" s="173">
-        <f>J11*J$28</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="173">
-        <v>0</v>
-      </c>
-      <c r="M11" s="173">
-        <f>L11*L$28</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="173">
-        <v>0</v>
-      </c>
-      <c r="O11" s="173">
-        <f>N11*N$28</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="173">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="173">
-        <f>P11*P$28</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="40">
-        <f>E11+G11+I11+K11+M11+O11+Q11</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="174">
-        <f>worthsf*R11</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="64">
-        <v>0</v>
-      </c>
-      <c r="U11" s="21"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="55">
-        <f>T11*costSsf</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="48">
-        <f>S11-W11</f>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="176">
-        <f>AVERAGE(X11:X12)</f>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="178" t="str">
-        <f>IF(AND(Y11&lt;0, Y11&lt;refWorth),"Redeploy resources", IF(AND(Y11&lt;0, Y11&gt;=refWorth),"Reduce Cost",IF(AND(Y11&gt;=0, Y11&lt;refWorth),"Increase effort", IF(AND(Y11&gt;=0, Y11&gt;=refWorth),"Preserve","error"))))</f>
+      <c r="D12" s="262">
+        <v>6</v>
+      </c>
+      <c r="E12" s="263">
+        <f>D12*D$20</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="263">
+        <v>0</v>
+      </c>
+      <c r="G12" s="263">
+        <f>F12*F$20</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="263">
+        <v>0</v>
+      </c>
+      <c r="I12" s="263">
+        <f>H12*H$20</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="263">
+        <v>0</v>
+      </c>
+      <c r="K12" s="263">
+        <f>J12*J$20</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="263">
+        <v>0</v>
+      </c>
+      <c r="M12" s="263">
+        <f>L12*L$20</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="263">
+        <v>0</v>
+      </c>
+      <c r="O12" s="263">
+        <f>N12*N$20</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="263">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="263">
+        <f>P12*P$20</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="218">
+        <f>E12+G12+I12+K12+M12+O12+Q12</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="268">
+        <f>worthsf*R12</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="219">
+        <v>0</v>
+      </c>
+      <c r="U12" s="220"/>
+      <c r="V12" s="221"/>
+      <c r="W12" s="222">
+        <f>T12*costSsf</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="223">
+        <f>S12-W12</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="269">
+        <f>AVERAGE(X12:X12)</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="267" t="str">
+        <f>IF(AND(Y12&lt;0, Y12&lt;refWorth),"Redeploy resources", IF(AND(Y12&lt;0, Y12&gt;=refWorth),"Reduce Cost",IF(AND(Y12&gt;=0, Y12&lt;refWorth),"Increase effort", IF(AND(Y12&gt;=0, Y12&gt;=refWorth),"Preserve","error"))))</f>
         <v>Increase effort</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C12" s="42" t="s">
+    <row r="13" spans="1:26" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="265" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="260"/>
+      <c r="C13" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="173"/>
-      <c r="K12" s="173"/>
-      <c r="L12" s="173"/>
-      <c r="M12" s="173"/>
-      <c r="N12" s="173"/>
-      <c r="O12" s="173"/>
-      <c r="P12" s="173"/>
-      <c r="Q12" s="173"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="175"/>
-      <c r="T12" s="65">
-        <v>0</v>
-      </c>
-      <c r="U12" s="99"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="57">
-        <f>T12*costTsf</f>
-        <v>0</v>
-      </c>
-      <c r="X12" s="58">
-        <f>S11-W12</f>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="177"/>
-      <c r="Z12" s="178"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C13" s="42" t="s">
+      <c r="D13" s="262"/>
+      <c r="E13" s="263"/>
+      <c r="F13" s="263"/>
+      <c r="G13" s="263"/>
+      <c r="H13" s="263"/>
+      <c r="I13" s="263"/>
+      <c r="J13" s="263"/>
+      <c r="K13" s="263"/>
+      <c r="L13" s="263"/>
+      <c r="M13" s="263"/>
+      <c r="N13" s="263"/>
+      <c r="O13" s="263"/>
+      <c r="P13" s="263"/>
+      <c r="Q13" s="263"/>
+      <c r="R13" s="270"/>
+      <c r="S13" s="271"/>
+      <c r="T13" s="272"/>
+      <c r="U13" s="273"/>
+      <c r="V13" s="274"/>
+      <c r="W13" s="275"/>
+      <c r="X13" s="241"/>
+      <c r="Y13" s="276"/>
+      <c r="Z13" s="277"/>
+    </row>
+    <row r="14" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="264"/>
+      <c r="B14" s="261"/>
+      <c r="C14" s="252" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="43">
-        <v>0</v>
-      </c>
-      <c r="E13" s="43">
-        <f>D11*D$28</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="43">
-        <v>0</v>
-      </c>
-      <c r="G13" s="43">
-        <f>F13*F$28</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="43">
-        <v>0</v>
-      </c>
-      <c r="I13" s="43">
-        <f>H13*H$28</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="43">
-        <v>0</v>
-      </c>
-      <c r="K13" s="43">
-        <f>J13*J$28</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="43">
-        <v>0</v>
-      </c>
-      <c r="M13" s="43">
-        <f>L13*L$28</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="43">
-        <v>0</v>
-      </c>
-      <c r="O13" s="43">
-        <f>N13*N$28</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="43">
-        <f>P13*P$28</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="44"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="109"/>
-      <c r="Z13" s="37"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="168" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="168"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="93" t="s">
-        <v>50</v>
-      </c>
-      <c r="W14" s="50"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="108"/>
-      <c r="Z14" s="12"/>
+      <c r="D14" s="250">
+        <v>0</v>
+      </c>
+      <c r="E14" s="224">
+        <f>D12*D$20</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="224">
+        <v>0</v>
+      </c>
+      <c r="G14" s="224">
+        <f>F14*F$20</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="224">
+        <v>0</v>
+      </c>
+      <c r="I14" s="224">
+        <f>H14*H$20</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="224">
+        <v>0</v>
+      </c>
+      <c r="K14" s="224">
+        <f>J14*J$20</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="224">
+        <v>0</v>
+      </c>
+      <c r="M14" s="224">
+        <f>L14*L$20</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="224">
+        <v>0</v>
+      </c>
+      <c r="O14" s="224">
+        <f>N14*N$20</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="224">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="224">
+        <f>P14*P$20</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="270"/>
+      <c r="S14" s="271"/>
+      <c r="T14" s="272"/>
+      <c r="U14" s="273"/>
+      <c r="V14" s="274"/>
+      <c r="W14" s="275"/>
+      <c r="X14" s="241"/>
+      <c r="Y14" s="276"/>
+      <c r="Z14" s="277"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="181"/>
-      <c r="B15" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="29">
-        <v>0</v>
-      </c>
-      <c r="E15" s="30">
-        <f>D15*D$28</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="29">
-        <v>0</v>
-      </c>
-      <c r="G15" s="43">
-        <f>F15*F$28</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="29">
-        <v>0</v>
-      </c>
-      <c r="I15" s="43">
-        <f>H15*H$28</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="29">
-        <v>0</v>
-      </c>
-      <c r="K15" s="43">
-        <f>J15*J$28</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="29">
-        <v>0</v>
-      </c>
-      <c r="M15" s="43">
-        <f>L15*L$28</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="29">
-        <v>0</v>
-      </c>
-      <c r="O15" s="43">
-        <f>N15*N$28</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="43">
-        <f>P15*P$28</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="72">
-        <f t="shared" ref="R15:R19" si="0">E15+G15+I15+K15+M15+O15+Q15</f>
-        <v>0</v>
-      </c>
-      <c r="S15" s="180">
-        <f>worthsf*R15</f>
-        <v>0</v>
-      </c>
-      <c r="T15" s="71">
-        <v>0</v>
-      </c>
-      <c r="U15" s="26"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="55">
-        <f>T15*costSsf</f>
-        <v>0</v>
-      </c>
-      <c r="X15" s="48">
-        <f>S15-W15</f>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="179">
-        <f>AVERAGE(X15:X16)</f>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="178" t="str">
-        <f>IF(AND(Y15&lt;0, Y15&lt;Y34),"Redeploy resources", IF(AND(Y15&lt;0, Y15&gt;=Y34),"Reduce Cost",IF(AND(Y15&gt;=0, Y15&lt;Y34),"Increase effort", IF(AND(Y15&gt;=0, Y15&gt;=Y34),"Preserve","error"))))</f>
-        <v>Preserve</v>
-      </c>
+      <c r="A15" s="217"/>
+      <c r="C15" s="227"/>
+      <c r="D15" s="226"/>
+      <c r="E15" s="226"/>
+      <c r="F15" s="226"/>
+      <c r="G15" s="226"/>
+      <c r="H15" s="226"/>
+      <c r="I15" s="226"/>
+      <c r="J15" s="226"/>
+      <c r="K15" s="226"/>
+      <c r="L15" s="226"/>
+      <c r="M15" s="226"/>
+      <c r="N15" s="226"/>
+      <c r="O15" s="226"/>
+      <c r="P15" s="226"/>
+      <c r="Q15" s="226"/>
+      <c r="R15" s="270"/>
+      <c r="S15" s="271"/>
+      <c r="T15" s="272"/>
+      <c r="U15" s="273"/>
+      <c r="V15" s="274"/>
+      <c r="W15" s="275"/>
+      <c r="X15" s="241"/>
+      <c r="Y15" s="276"/>
+      <c r="Z15" s="277"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="181"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="102"/>
-      <c r="S16" s="180"/>
-      <c r="T16" s="65">
-        <v>0</v>
-      </c>
-      <c r="U16" s="100"/>
-      <c r="V16" s="96"/>
-      <c r="W16" s="87">
-        <f>T16*costTsf</f>
-        <v>0</v>
-      </c>
-      <c r="X16" s="58">
-        <f>S15-W16</f>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="179"/>
-      <c r="Z16" s="178"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="181"/>
-      <c r="B17" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="29">
-        <v>0</v>
-      </c>
-      <c r="E17" s="30">
-        <f>D17*D$28</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="29">
-        <v>0</v>
-      </c>
-      <c r="G17" s="43">
-        <f>F17*F$28</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="29">
-        <v>0</v>
-      </c>
-      <c r="I17" s="43">
-        <f>H17*H$28</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="29">
-        <v>0</v>
-      </c>
-      <c r="K17" s="43">
-        <f>J17*J$28</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="29">
-        <v>0</v>
-      </c>
-      <c r="M17" s="43">
-        <f>L17*L$28</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="29">
-        <v>0</v>
-      </c>
-      <c r="O17" s="43">
-        <f>N17*N$28</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="43">
-        <f>P17*P$28</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="180">
-        <f>worthsf*R17</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="63">
-        <v>0</v>
-      </c>
-      <c r="U17" s="26"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="55">
-        <f>T17*costSsf</f>
-        <v>0</v>
-      </c>
-      <c r="X17" s="48">
-        <f>S17-W17</f>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="179">
-        <f>AVERAGE(X17:X18)</f>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="178" t="str">
-        <f t="shared" ref="Z17" si="1">IF(AND(Y17&lt;0, Y17&lt;Y36),"Redeploy resources", IF(AND(Y17&lt;0, Y17&gt;=Y36),"Reduce Cost",IF(AND(Y17&gt;=0, Y17&lt;Y36),"Increase effort", IF(AND(Y17&gt;=0, Y17&gt;=Y36),"Preserve","error"))))</f>
-        <v>Preserve</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="181"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="102"/>
-      <c r="S18" s="180"/>
-      <c r="T18" s="65">
-        <v>0</v>
-      </c>
-      <c r="U18" s="100"/>
-      <c r="V18" s="96"/>
-      <c r="W18" s="87">
-        <f>T18*costTsf</f>
-        <v>0</v>
-      </c>
-      <c r="X18" s="58">
-        <f>S17-W18</f>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="179"/>
-      <c r="Z18" s="178"/>
+      <c r="A16" s="184"/>
+      <c r="C16" s="253"/>
+      <c r="D16" s="226"/>
+      <c r="E16" s="226"/>
+      <c r="F16" s="226"/>
+      <c r="G16" s="226"/>
+      <c r="H16" s="226"/>
+      <c r="I16" s="226"/>
+      <c r="J16" s="226"/>
+      <c r="K16" s="226"/>
+      <c r="L16" s="226"/>
+      <c r="M16" s="226"/>
+      <c r="N16" s="226"/>
+      <c r="O16" s="226"/>
+      <c r="P16" s="226"/>
+      <c r="Q16" s="226"/>
+      <c r="R16" s="278"/>
+      <c r="S16" s="279"/>
+      <c r="T16" s="280"/>
+      <c r="U16" s="280"/>
+      <c r="V16" s="280"/>
+      <c r="W16" s="281"/>
+      <c r="X16" s="282"/>
+      <c r="Y16" s="283"/>
+      <c r="Z16" s="284"/>
+    </row>
+    <row r="17" spans="1:26" ht="18" x14ac:dyDescent="0.3">
+      <c r="C17" s="254" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="229">
+        <f>SUM(D12:D15)</f>
+        <v>6</v>
+      </c>
+      <c r="E17" s="229"/>
+      <c r="F17" s="229">
+        <f>SUM(F12:F15)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="229"/>
+      <c r="H17" s="229">
+        <f>SUM(H12:H15)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="229"/>
+      <c r="J17" s="229">
+        <f>SUM(J12:J15)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="229"/>
+      <c r="L17" s="229">
+        <f>SUM(L12:L15)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="229"/>
+      <c r="N17" s="229">
+        <f>SUM(N12:N15)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="229"/>
+      <c r="P17" s="229">
+        <f>SUM(P12:P15)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="229"/>
+    </row>
+    <row r="18" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="227"/>
+      <c r="D18" s="230">
+        <f>D17*effortsf</f>
+        <v>32.307692307692307</v>
+      </c>
+      <c r="E18" s="230"/>
+      <c r="F18" s="230">
+        <f>F17*effortsf</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="230"/>
+      <c r="H18" s="230">
+        <f>H17*effortsf</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="230"/>
+      <c r="J18" s="230">
+        <f>J17*effortsf</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="230"/>
+      <c r="L18" s="230">
+        <f>L17*effortsf</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="230"/>
+      <c r="N18" s="230">
+        <f>N17*effortsf</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="230"/>
+      <c r="P18" s="230">
+        <f>P17*effortsf</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="230"/>
+      <c r="R18" s="231"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="181"/>
-      <c r="B19" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="29">
-        <v>0</v>
-      </c>
-      <c r="E19" s="30">
-        <f>D19*D$28</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="29">
-        <v>0</v>
-      </c>
-      <c r="G19" s="43">
-        <f>F19*F$28</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="29">
-        <v>0</v>
-      </c>
-      <c r="I19" s="43">
-        <f>H19*H$28</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="29">
-        <v>0</v>
-      </c>
-      <c r="K19" s="43">
-        <f>J19*J$28</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="29">
-        <v>0</v>
-      </c>
-      <c r="M19" s="43">
-        <f>L19*L$28</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="29">
-        <v>0</v>
-      </c>
-      <c r="O19" s="43">
-        <f>N19*N$28</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="43">
-        <f>P19*P$28</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="180">
-        <f>worthsf*R19</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="63">
-        <v>0</v>
-      </c>
-      <c r="U19" s="66"/>
-      <c r="V19" s="97"/>
-      <c r="W19" s="80">
-        <f>T19*costSsf</f>
-        <v>0</v>
-      </c>
-      <c r="X19" s="79">
-        <f>S19-W19</f>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="179">
-        <f>AVERAGE(X19:X22)</f>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="178" t="str">
-        <f>IF(AND(Y19&lt;0, Y19&lt;Y38),"Redeploy resources", IF(AND(Y19&lt;0, Y19&gt;=Y38),"Reduce Cost",IF(AND(Y19&gt;=0, Y19&lt;Y38),"Increase effort", IF(AND(Y19&gt;=0, Y19&gt;=Y38),"Preserve","error"))))</f>
-        <v>Preserve</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="38"/>
-      <c r="S20" s="180"/>
-      <c r="T20" s="81">
-        <v>0</v>
-      </c>
-      <c r="U20" s="101"/>
-      <c r="V20" s="98"/>
-      <c r="W20" s="88">
-        <f>T20*costTsf</f>
-        <v>0</v>
-      </c>
-      <c r="X20" s="82">
-        <f>S19-W20</f>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="179"/>
-      <c r="Z20" s="178"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="38"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="74"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="93" t="s">
-        <v>50</v>
-      </c>
-      <c r="W21" s="75"/>
-      <c r="X21" s="76"/>
-      <c r="Y21" s="110"/>
-      <c r="Z21" s="77"/>
+      <c r="C19" s="227"/>
+    </row>
+    <row r="20" spans="1:26" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="265" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="266"/>
+      <c r="C20" s="255" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="229">
+        <v>0</v>
+      </c>
+      <c r="E20" s="229"/>
+      <c r="F20" s="229">
+        <v>0</v>
+      </c>
+      <c r="G20" s="229"/>
+      <c r="H20" s="229">
+        <v>0</v>
+      </c>
+      <c r="I20" s="229"/>
+      <c r="J20" s="229">
+        <v>0</v>
+      </c>
+      <c r="K20" s="229"/>
+      <c r="L20" s="229">
+        <v>0</v>
+      </c>
+      <c r="M20" s="229"/>
+      <c r="N20" s="229">
+        <v>0</v>
+      </c>
+      <c r="O20" s="229"/>
+      <c r="P20" s="229">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="229"/>
+    </row>
+    <row r="21" spans="1:26" s="232" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="185"/>
+      <c r="B21" s="184"/>
+      <c r="C21" s="185"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="233">
+        <f>D20*impsf</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="233"/>
+      <c r="G21" s="233">
+        <f>F20*impsf</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="233"/>
+      <c r="I21" s="233">
+        <f>H20*impsf</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="233"/>
+      <c r="K21" s="233">
+        <f>J20*impsf</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="233"/>
+      <c r="M21" s="233">
+        <f>L20*impsf</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="233"/>
+      <c r="O21" s="233">
+        <f>N20*impsf</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="233"/>
+      <c r="Q21" s="233">
+        <f>P20*impsf</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="231"/>
+      <c r="S21" s="234" t="s">
+        <v>24</v>
+      </c>
+      <c r="T21" s="234" t="s">
+        <v>25</v>
+      </c>
+      <c r="U21" s="235">
+        <f>AVERAGE(R12:R12)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="235"/>
+      <c r="W21" s="234"/>
+      <c r="X21" s="234" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y21" s="236" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z21" s="235" t="e">
+        <f>AVERAGE(#REF!,#REF!,#REF!,#REF!)</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="173">
-        <v>0</v>
-      </c>
-      <c r="E22" s="173">
-        <f>D22*D$28</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="173">
-        <v>0</v>
-      </c>
-      <c r="G22" s="173">
-        <f>F22*F$28</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="173">
-        <v>0</v>
-      </c>
-      <c r="I22" s="173">
-        <f>H22*H$28</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="173">
-        <v>0</v>
-      </c>
-      <c r="K22" s="173">
-        <f>J22*J$28</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="173">
-        <v>0</v>
-      </c>
-      <c r="M22" s="173">
-        <f>L22*L$28</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="173">
-        <v>0</v>
-      </c>
-      <c r="O22" s="173">
-        <f>N22*N$28</f>
-        <v>0</v>
-      </c>
-      <c r="P22" s="173">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="173">
-        <f>P22*P$28</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="40">
-        <f>E22+G22+I22+K22+M22+O22+Q22</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="174">
-        <f>worthsf*R22</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="64">
-        <v>0</v>
-      </c>
-      <c r="U22" s="21"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="55">
-        <f>T22*costSsf</f>
-        <v>0</v>
-      </c>
-      <c r="X22" s="48">
-        <f>S22-W22</f>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="176">
-        <f>AVERAGE(X22:X23)</f>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="178" t="str">
-        <f t="shared" ref="Z22" si="2">IF(AND(Y22&lt;0, Y22&lt;Y41),"Redeploy resources", IF(AND(Y22&lt;0, Y22&gt;=Y41),"Reduce Cost",IF(AND(Y22&gt;=0, Y22&lt;Y41),"Increase effort", IF(AND(Y22&gt;=0, Y22&gt;=Y41),"Preserve","error"))))</f>
-        <v>Preserve</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="D23" s="173"/>
-      <c r="E23" s="173"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="173"/>
-      <c r="K23" s="173"/>
-      <c r="L23" s="173"/>
-      <c r="M23" s="173"/>
-      <c r="N23" s="173"/>
-      <c r="O23" s="173"/>
-      <c r="P23" s="173"/>
-      <c r="Q23" s="173"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="175"/>
-      <c r="T23" s="23">
-        <v>0</v>
-      </c>
-      <c r="U23" s="99"/>
-      <c r="V23" s="94"/>
-      <c r="W23" s="87">
-        <f>T23*costTsf</f>
-        <v>0</v>
-      </c>
-      <c r="X23" s="58">
-        <f>S22-W23</f>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="177"/>
-      <c r="Z23" s="178"/>
+      <c r="S22" s="234" t="s">
+        <v>24</v>
+      </c>
+      <c r="T22" s="234" t="s">
+        <v>26</v>
+      </c>
+      <c r="U22" s="235" t="e">
+        <f>100/U21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V22" s="235"/>
+      <c r="W22" s="234"/>
+      <c r="X22" s="234" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y22" s="236" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z22" s="235" t="e">
+        <f>100/Z21</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="18" x14ac:dyDescent="0.3">
+      <c r="C23" s="228" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="237">
+        <f>D18-E21</f>
+        <v>32.307692307692307</v>
+      </c>
+      <c r="E23" s="228"/>
+      <c r="F23" s="237">
+        <f t="shared" ref="F23" si="0">F18-G21</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="228"/>
+      <c r="H23" s="237">
+        <f t="shared" ref="H23" si="1">H18-I21</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="228"/>
+      <c r="J23" s="237">
+        <f t="shared" ref="J23" si="2">J18-K21</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="228"/>
+      <c r="L23" s="237">
+        <f t="shared" ref="L23" si="3">L18-M21</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="228"/>
+      <c r="N23" s="237">
+        <f t="shared" ref="N23" si="4">N18-O21</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="228"/>
+      <c r="P23" s="237">
+        <f t="shared" ref="P23" si="5">P18-Q21</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="228"/>
+      <c r="S23" s="234" t="s">
+        <v>27</v>
+      </c>
+      <c r="T23" s="234" t="s">
+        <v>25</v>
+      </c>
+      <c r="U23" s="235" t="e">
+        <f>AVERAGE(#REF!,#REF!,#REF!,T12)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V23" s="235"/>
+      <c r="W23" s="234"/>
+      <c r="X23" s="234" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y23" s="236" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z23" s="235">
+        <f>AVERAGE(D17:Q17)</f>
+        <v>0.8571428571428571</v>
+      </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="84"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="68"/>
-      <c r="X24" s="78"/>
-      <c r="Y24" s="111"/>
-      <c r="Z24" s="83"/>
-    </row>
-    <row r="25" spans="1:26" ht="18" x14ac:dyDescent="0.3">
-      <c r="C25" s="8" t="s">
+      <c r="S24" s="234" t="s">
+        <v>27</v>
+      </c>
+      <c r="T24" s="234" t="s">
+        <v>26</v>
+      </c>
+      <c r="U24" s="235" t="e">
+        <f>100/U23</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V24" s="235"/>
+      <c r="W24" s="234"/>
+      <c r="X24" s="234" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="159">
-        <f>SUM(D11:D19)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="159"/>
-      <c r="F25" s="159">
-        <f>SUM(F11:F19)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="159"/>
-      <c r="H25" s="159">
-        <f>SUM(H11:H19)</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="159"/>
-      <c r="J25" s="159">
-        <f>SUM(J11:J19)</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="159"/>
-      <c r="L25" s="159">
-        <f>SUM(L11:L19)</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="159"/>
-      <c r="N25" s="159">
-        <f>SUM(N11:N19)</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="159"/>
-      <c r="P25" s="159">
-        <f>SUM(P11:P19)</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="159"/>
-    </row>
-    <row r="26" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="54">
-        <f>D25*effortsf</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54">
-        <f>F25*effortsf</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54">
-        <f>H25*effortsf</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54">
-        <f>J25*effortsf</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54">
-        <f>L25*effortsf</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54">
-        <f>N25*effortsf</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54">
-        <f>P25*effortsf</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="34"/>
-    </row>
-    <row r="28" spans="1:26" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="159">
-        <v>0</v>
-      </c>
-      <c r="E28" s="159"/>
-      <c r="F28" s="159">
-        <v>0</v>
-      </c>
-      <c r="G28" s="159"/>
-      <c r="H28" s="159">
-        <v>0</v>
-      </c>
-      <c r="I28" s="159"/>
-      <c r="J28" s="159">
-        <v>0</v>
-      </c>
-      <c r="K28" s="159"/>
-      <c r="L28" s="159">
-        <v>0</v>
-      </c>
-      <c r="M28" s="159"/>
-      <c r="N28" s="159">
-        <v>0</v>
-      </c>
-      <c r="O28" s="159"/>
-      <c r="P28" s="159">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="159"/>
-    </row>
-    <row r="29" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="56">
-        <f>D28*impsf</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56">
-        <f>F28*impsf</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56">
-        <f>H28*impsf</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56">
-        <f>J28*impsf</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56">
-        <f>L28*impsf</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56">
-        <f>N28*impsf</f>
-        <v>0</v>
-      </c>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="56">
-        <f>P28*impsf</f>
-        <v>0</v>
-      </c>
-      <c r="R29" s="34"/>
-      <c r="S29" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="T29" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="U29" s="27">
-        <f>AVERAGE(R11:R19)</f>
-        <v>0</v>
-      </c>
-      <c r="V29" s="27"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y29" s="112" t="s">
+      <c r="Y24" s="236" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z24" s="234">
+        <f>100/Z23</f>
+        <v>116.66666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="S25" s="238" t="s">
+        <v>30</v>
+      </c>
+      <c r="T25" s="239" t="s">
         <v>29</v>
       </c>
-      <c r="Z29" s="27">
-        <f>AVERAGE(T20,T18,T16,T12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="S30" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="T30" s="28" t="s">
+      <c r="U25" s="240">
+        <f>AVERAGE(D20:Q20)</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="240"/>
+      <c r="W25" s="234"/>
+      <c r="X25" s="239" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y25" s="236" t="s">
         <v>26</v>
       </c>
-      <c r="U30" s="27" t="e">
-        <f>100/U29</f>
+      <c r="Z25" s="234" t="e">
+        <f>100/U25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V30" s="27"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y30" s="112" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z30" s="27" t="e">
-        <f>100/Z29</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" ht="18" x14ac:dyDescent="0.3">
-      <c r="C31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="47">
-        <f>D26-E29</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="47">
-        <f t="shared" ref="F31" si="3">F26-G29</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="47">
-        <f t="shared" ref="H31" si="4">H26-I29</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="47">
-        <f t="shared" ref="J31" si="5">J26-K29</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="8"/>
-      <c r="L31" s="47">
-        <f t="shared" ref="L31" si="6">L26-M29</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="8"/>
-      <c r="N31" s="47">
-        <f t="shared" ref="N31" si="7">N26-O29</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="8"/>
-      <c r="P31" s="47">
-        <f t="shared" ref="P31" si="8">P26-Q29</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="8"/>
-      <c r="S31" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="T31" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="U31" s="27">
-        <f>AVERAGE(T19,T17,T15,T11)</f>
-        <v>0</v>
-      </c>
-      <c r="V31" s="27"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y31" s="112" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z31" s="27">
-        <f>AVERAGE(D25:Q25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="S32" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="T32" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="U32" s="27" t="e">
-        <f>100/U31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V32" s="27"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y32" s="112" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z32" s="28" t="e">
-        <f>100/Z31</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="S33" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="T33" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="U33" s="32">
-        <f>AVERAGE(D28:Q28)</f>
-        <v>0</v>
-      </c>
-      <c r="V33" s="32"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y33" s="112" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z33" s="28" t="e">
-        <f>100/U33</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="67"/>
-    </row>
-    <row r="35" spans="3:26" ht="18" x14ac:dyDescent="0.3">
-      <c r="C35" s="8" t="s">
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U26" s="184"/>
+      <c r="V26" s="184"/>
+      <c r="W26" s="184"/>
+      <c r="X26" s="241"/>
+    </row>
+    <row r="27" spans="1:26" ht="18" x14ac:dyDescent="0.3">
+      <c r="C27" s="228" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="25">
-        <v>4.5</v>
-      </c>
-      <c r="E35" s="49">
-        <f>D35*D28</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="25">
-        <v>4.5</v>
-      </c>
-      <c r="G35" s="49">
-        <f>F35*F28</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="25">
-        <v>4.5</v>
-      </c>
-      <c r="I35" s="49">
-        <f>H35*H28</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="25">
-        <v>4.5</v>
-      </c>
-      <c r="K35" s="49">
-        <f>J35*J28</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="25">
-        <v>4.5</v>
-      </c>
-      <c r="M35" s="49">
-        <f>L35*L28</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="25">
-        <v>4.5</v>
-      </c>
-      <c r="O35" s="49">
-        <f>N35*N28</f>
-        <v>0</v>
-      </c>
-      <c r="P35" s="25">
-        <v>4.5</v>
-      </c>
-      <c r="Q35" s="49">
-        <f>P35*P28</f>
-        <v>0</v>
-      </c>
-      <c r="R35" s="14">
-        <f t="shared" ref="R35" si="9">E35+G35+I35+K35+M35+O35+Q35</f>
-        <v>0</v>
-      </c>
-      <c r="S35" s="165">
-        <f>worthsf*R35</f>
-        <v>0</v>
-      </c>
-      <c r="T35" s="166"/>
-      <c r="U35" s="61">
-        <f>U31</f>
-        <v>0</v>
-      </c>
-      <c r="V35" s="167" t="s">
+      <c r="D27" s="242">
+        <v>4</v>
+      </c>
+      <c r="E27" s="243">
+        <f>D27*D20</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="242">
+        <v>4</v>
+      </c>
+      <c r="G27" s="243">
+        <f>F27*F20</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="242">
+        <v>4</v>
+      </c>
+      <c r="I27" s="243">
+        <f>H27*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="242">
+        <v>4</v>
+      </c>
+      <c r="K27" s="243">
+        <f>J27*J20</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="242">
+        <v>4</v>
+      </c>
+      <c r="M27" s="243">
+        <f>L27*L20</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="242">
+        <v>4</v>
+      </c>
+      <c r="O27" s="243">
+        <f>N27*N20</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="242">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="243">
+        <f>P27*P20</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="221">
+        <f t="shared" ref="R27" si="6">E27+G27+I27+K27+M27+O27+Q27</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="244">
+        <f>worthsf*R27</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="245"/>
+      <c r="U27" s="246" t="e">
+        <f>U23</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V27" s="247" t="s">
         <v>21</v>
       </c>
-      <c r="W35" s="167"/>
-      <c r="X35" s="167"/>
-      <c r="Y35" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="U36" s="62">
-        <f>Z29</f>
-        <v>0</v>
-      </c>
-      <c r="V36" s="172" t="s">
-        <v>34</v>
-      </c>
-      <c r="W36" s="172"/>
-      <c r="X36" s="172"/>
-      <c r="Y36" s="62">
+      <c r="W27" s="247"/>
+      <c r="X27" s="247"/>
+      <c r="Y27" s="248">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="80">
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
+  <mergeCells count="51">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="D8:J8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="Y22:Y23"/>
-    <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:A6">
+  <conditionalFormatting sqref="B3:B6 A7">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6154,7 +6176,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B6">
+  <conditionalFormatting sqref="C3:C6 B7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6166,7 +6188,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31 F31 H31 J31 L31 N31 P31">
+  <conditionalFormatting sqref="D20:Q20">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23 D23 H23 J23 L23 N23 P23">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -6178,29 +6212,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:Q28">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R11:R24">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R11 R35 R15 R17 R19:R22">
+  <conditionalFormatting sqref="R12:R15 R27">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -6212,7 +6224,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R35">
+  <conditionalFormatting sqref="R27">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -6246,91 +6258,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T15 T11 T17 T19 T21:T22">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T16 T20 T18 T12">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T16 T20 T18 T12:T14">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U36 T20 T16 T18 T12">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T23:T24">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U35 T11 T15 T17 T19 T21:T22">
+  <conditionalFormatting sqref="T12:T15 U27">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -6342,67 +6270,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U35:U36 T11:T12 T15:T20 T22:T23">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X11:X12">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X15:X21">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X15:X24 X11:X12">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X22:X24">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X34">
+  <conditionalFormatting sqref="X26">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -6414,8 +6282,58 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y15:Y19 Y11:Y12 Y21:Y24">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="T12:T15">
+    <cfRule type="colorScale" priority="461">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="462">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T16">
+    <cfRule type="colorScale" priority="483">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="484">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="485">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X16">
+    <cfRule type="colorScale" priority="487">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6426,8 +6344,66 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y35:Y36">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="X12:X15">
+    <cfRule type="colorScale" priority="496">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y12:Y16">
+    <cfRule type="colorScale" priority="504">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X12:X16">
+    <cfRule type="colorScale" priority="506">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R12:R16">
+    <cfRule type="colorScale" priority="509">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T12:T15 U27">
+    <cfRule type="colorScale" priority="510">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y27">
+    <cfRule type="colorScale" priority="512">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6439,6 +6415,18 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E8F4F67-9BE1-4D31-B691-146C6C6F946E}">
+          <x14:formula1>
+            <xm:f>_lists!$A$1:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>D12:D13</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6524,48 +6512,48 @@
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="182" t="s">
+      <c r="D7" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="182"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="172"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="172"/>
     </row>
     <row r="8" spans="1:26" s="6" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="155">
+      <c r="D8" s="167">
         <v>1</v>
       </c>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155">
+      <c r="E8" s="167"/>
+      <c r="F8" s="167">
         <v>2</v>
       </c>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155">
+      <c r="G8" s="167"/>
+      <c r="H8" s="167">
         <v>3</v>
       </c>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155">
+      <c r="I8" s="167"/>
+      <c r="J8" s="167">
         <v>4</v>
       </c>
-      <c r="K8" s="155"/>
-      <c r="L8" s="155">
+      <c r="K8" s="167"/>
+      <c r="L8" s="167">
         <v>5</v>
       </c>
-      <c r="M8" s="155"/>
-      <c r="N8" s="155">
+      <c r="M8" s="167"/>
+      <c r="N8" s="167">
         <v>6</v>
       </c>
-      <c r="O8" s="155"/>
-      <c r="P8" s="155">
+      <c r="O8" s="167"/>
+      <c r="P8" s="167">
         <v>7</v>
       </c>
-      <c r="Q8" s="155"/>
+      <c r="Q8" s="167"/>
       <c r="Y8" s="105"/>
     </row>
     <row r="9" spans="1:26" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -6574,48 +6562,48 @@
       <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="156" t="s">
+      <c r="D9" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156" t="s">
+      <c r="E9" s="168"/>
+      <c r="F9" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156" t="s">
+      <c r="G9" s="168"/>
+      <c r="H9" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156" t="s">
+      <c r="I9" s="168"/>
+      <c r="J9" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="156"/>
-      <c r="L9" s="156" t="s">
+      <c r="K9" s="168"/>
+      <c r="L9" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="156"/>
-      <c r="N9" s="156" t="s">
+      <c r="M9" s="168"/>
+      <c r="N9" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="156"/>
-      <c r="P9" s="156" t="s">
+      <c r="O9" s="168"/>
+      <c r="P9" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="169" t="s">
+      <c r="Q9" s="168"/>
+      <c r="R9" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="170"/>
-      <c r="T9" s="171" t="s">
+      <c r="S9" s="165"/>
+      <c r="T9" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="U9" s="171"/>
-      <c r="V9" s="171"/>
-      <c r="W9" s="171"/>
-      <c r="X9" s="171" t="s">
+      <c r="U9" s="166"/>
+      <c r="V9" s="166"/>
+      <c r="W9" s="166"/>
+      <c r="X9" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="Y9" s="171"/>
+      <c r="Y9" s="166"/>
       <c r="Z9" s="70" t="s">
         <v>32</v>
       </c>
@@ -6736,7 +6724,7 @@
         <f>E11+G11+I11+K11+M11+O11+Q11</f>
         <v>1490</v>
       </c>
-      <c r="S11" s="174">
+      <c r="S11" s="178">
         <f>worthsf*R11</f>
         <v>87.905604719764014</v>
       </c>
@@ -6757,11 +6745,11 @@
         <f>S11-W11</f>
         <v>35.416916936958586</v>
       </c>
-      <c r="Y11" s="176">
+      <c r="Y11" s="180">
         <f>AVERAGE(X11:X12)</f>
         <v>29.477352782384294</v>
       </c>
-      <c r="Z11" s="178" t="str">
+      <c r="Z11" s="177" t="str">
         <f>IF(AND(Y11&lt;0, Y11&lt;refWorth),"Redeploy resources", IF(AND(Y11&lt;0, Y11&gt;=refWorth),"Reduce Cost",IF(AND(Y11&gt;=0, Y11&lt;refWorth),"Increase effort", IF(AND(Y11&gt;=0, Y11&gt;=refWorth),"Preserve","error"))))</f>
         <v>Increase effort</v>
       </c>
@@ -6785,7 +6773,7 @@
       <c r="P12" s="173"/>
       <c r="Q12" s="173"/>
       <c r="R12" s="41"/>
-      <c r="S12" s="175"/>
+      <c r="S12" s="179"/>
       <c r="T12" s="65">
         <v>28</v>
       </c>
@@ -6803,8 +6791,8 @@
         <f>S11-W12</f>
         <v>23.537788627810002</v>
       </c>
-      <c r="Y12" s="177"/>
-      <c r="Z12" s="178"/>
+      <c r="Y12" s="181"/>
+      <c r="Z12" s="177"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C13" s="42" t="s">
@@ -6871,10 +6859,10 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
-      <c r="B14" s="168" t="s">
+      <c r="B14" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="168"/>
+      <c r="C14" s="163"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
       <c r="F14" s="38"/>
@@ -6902,7 +6890,7 @@
       <c r="Z14" s="12"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="181"/>
+      <c r="A15" s="174"/>
       <c r="B15" s="46" t="s">
         <v>13</v>
       </c>
@@ -6962,7 +6950,7 @@
         <f t="shared" ref="R15:R19" si="0">E15+G15+I15+K15+M15+O15+Q15</f>
         <v>1900</v>
       </c>
-      <c r="S15" s="180">
+      <c r="S15" s="175">
         <f>worthsf*R15</f>
         <v>112.09439528023599</v>
       </c>
@@ -6983,17 +6971,17 @@
         <f>S15-W15</f>
         <v>32.456386230462229</v>
       </c>
-      <c r="Y15" s="179">
+      <c r="Y15" s="176">
         <f>AVERAGE(X15:X16)</f>
         <v>35.493781559946811</v>
       </c>
-      <c r="Z15" s="178" t="str">
+      <c r="Z15" s="177" t="str">
         <f>IF(AND(Y15&lt;0, Y15&lt;Y34),"Redeploy resources", IF(AND(Y15&lt;0, Y15&gt;=Y34),"Reduce Cost",IF(AND(Y15&gt;=0, Y15&lt;Y34),"Increase effort", IF(AND(Y15&gt;=0, Y15&gt;=Y34),"Preserve","error"))))</f>
         <v>Preserve</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="181"/>
+      <c r="A16" s="174"/>
       <c r="C16" s="20"/>
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
@@ -7010,7 +6998,7 @@
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
       <c r="R16" s="102"/>
-      <c r="S16" s="180"/>
+      <c r="S16" s="175"/>
       <c r="T16" s="65">
         <v>32</v>
       </c>
@@ -7028,11 +7016,11 @@
         <f>S15-W16</f>
         <v>38.531176889431393</v>
       </c>
-      <c r="Y16" s="179"/>
-      <c r="Z16" s="178"/>
+      <c r="Y16" s="176"/>
+      <c r="Z16" s="177"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="181"/>
+      <c r="A17" s="174"/>
       <c r="B17" s="46" t="s">
         <v>14</v>
       </c>
@@ -7092,7 +7080,7 @@
         <f t="shared" si="0"/>
         <v>1220</v>
       </c>
-      <c r="S17" s="180">
+      <c r="S17" s="175">
         <f>worthsf*R17</f>
         <v>71.976401179941007</v>
       </c>
@@ -7113,17 +7101,17 @@
         <f>S17-W17</f>
         <v>-109.01907393318118</v>
       </c>
-      <c r="Y17" s="179">
+      <c r="Y17" s="176">
         <f>AVERAGE(X17:X18)</f>
         <v>-59.900646721447671</v>
       </c>
-      <c r="Z17" s="178" t="str">
+      <c r="Z17" s="177" t="str">
         <f t="shared" ref="Z17" si="1">IF(AND(Y17&lt;0, Y17&lt;Y36),"Redeploy resources", IF(AND(Y17&lt;0, Y17&gt;=Y36),"Reduce Cost",IF(AND(Y17&gt;=0, Y17&lt;Y36),"Increase effort", IF(AND(Y17&gt;=0, Y17&gt;=Y36),"Preserve","error"))))</f>
         <v>Redeploy resources</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="181"/>
+      <c r="A18" s="174"/>
       <c r="C18" s="12"/>
       <c r="D18" s="16"/>
       <c r="E18" s="17"/>
@@ -7140,7 +7128,7 @@
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="102"/>
-      <c r="S18" s="180"/>
+      <c r="S18" s="175"/>
       <c r="T18" s="65">
         <v>36</v>
       </c>
@@ -7158,11 +7146,11 @@
         <f>S17-W18</f>
         <v>-10.782219509714167</v>
       </c>
-      <c r="Y18" s="179"/>
-      <c r="Z18" s="178"/>
+      <c r="Y18" s="176"/>
+      <c r="Z18" s="177"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="181"/>
+      <c r="A19" s="174"/>
       <c r="B19" s="46" t="s">
         <v>15</v>
       </c>
@@ -7222,7 +7210,7 @@
         <f t="shared" si="0"/>
         <v>2170</v>
       </c>
-      <c r="S19" s="180">
+      <c r="S19" s="175">
         <f>worthsf*R19</f>
         <v>128.02359882005899</v>
       </c>
@@ -7243,11 +7231,11 @@
         <f>S19-W19</f>
         <v>41.145770765760346</v>
       </c>
-      <c r="Y19" s="179">
+      <c r="Y19" s="176">
         <f>AVERAGE(X19:X22)</f>
         <v>-4.1616133163279967</v>
       </c>
-      <c r="Z19" s="178" t="str">
+      <c r="Z19" s="177" t="str">
         <f>IF(AND(Y19&lt;0, Y19&lt;Y38),"Redeploy resources", IF(AND(Y19&lt;0, Y19&gt;=Y38),"Reduce Cost",IF(AND(Y19&gt;=0, Y19&lt;Y38),"Increase effort", IF(AND(Y19&gt;=0, Y19&gt;=Y38),"Preserve","error"))))</f>
         <v>Redeploy resources</v>
       </c>
@@ -7269,7 +7257,7 @@
       <c r="O20" s="38"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="38"/>
-      <c r="S20" s="180"/>
+      <c r="S20" s="175"/>
       <c r="T20" s="81">
         <v>78</v>
       </c>
@@ -7287,8 +7275,8 @@
         <f>S19-W20</f>
         <v>-51.286746007527199</v>
       </c>
-      <c r="Y20" s="179"/>
-      <c r="Z20" s="178"/>
+      <c r="Y20" s="176"/>
+      <c r="Z20" s="177"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
@@ -7374,7 +7362,7 @@
         <f>E22+G22+I22+K22+M22+O22+Q22</f>
         <v>2660</v>
       </c>
-      <c r="S22" s="174">
+      <c r="S22" s="178">
         <f>worthsf*R22</f>
         <v>156.93215339233038</v>
       </c>
@@ -7395,11 +7383,11 @@
         <f>S22-W22</f>
         <v>-2.3438647072171364</v>
       </c>
-      <c r="Y22" s="176">
+      <c r="Y22" s="180">
         <f>AVERAGE(X22:X23)</f>
         <v>60.052765032211795</v>
       </c>
-      <c r="Z22" s="178" t="str">
+      <c r="Z22" s="177" t="str">
         <f t="shared" ref="Z22" si="2">IF(AND(Y22&lt;0, Y22&lt;Y41),"Redeploy resources", IF(AND(Y22&lt;0, Y22&gt;=Y41),"Reduce Cost",IF(AND(Y22&gt;=0, Y22&lt;Y41),"Increase effort", IF(AND(Y22&gt;=0, Y22&gt;=Y41),"Preserve","error"))))</f>
         <v>Preserve</v>
       </c>
@@ -7427,7 +7415,7 @@
       <c r="P23" s="173"/>
       <c r="Q23" s="173"/>
       <c r="R23" s="41"/>
-      <c r="S23" s="175"/>
+      <c r="S23" s="179"/>
       <c r="T23" s="23">
         <v>15</v>
       </c>
@@ -7445,8 +7433,8 @@
         <f>S22-W23</f>
         <v>122.44939477164073</v>
       </c>
-      <c r="Y23" s="177"/>
-      <c r="Z23" s="178"/>
+      <c r="Y23" s="181"/>
+      <c r="Z23" s="177"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
@@ -7479,41 +7467,41 @@
       <c r="C25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="159">
+      <c r="D25" s="162">
         <f>SUM(D11:D19)</f>
         <v>17</v>
       </c>
-      <c r="E25" s="159"/>
-      <c r="F25" s="159">
+      <c r="E25" s="162"/>
+      <c r="F25" s="162">
         <f>SUM(F11:F19)</f>
         <v>20</v>
       </c>
-      <c r="G25" s="159"/>
-      <c r="H25" s="159">
+      <c r="G25" s="162"/>
+      <c r="H25" s="162">
         <f>SUM(H11:H19)</f>
         <v>18</v>
       </c>
-      <c r="I25" s="159"/>
-      <c r="J25" s="159">
+      <c r="I25" s="162"/>
+      <c r="J25" s="162">
         <f>SUM(J11:J19)</f>
         <v>25</v>
       </c>
-      <c r="K25" s="159"/>
-      <c r="L25" s="159">
+      <c r="K25" s="162"/>
+      <c r="L25" s="162">
         <f>SUM(L11:L19)</f>
         <v>19</v>
       </c>
-      <c r="M25" s="159"/>
-      <c r="N25" s="159">
+      <c r="M25" s="162"/>
+      <c r="N25" s="162">
         <f>SUM(N11:N19)</f>
         <v>19</v>
       </c>
-      <c r="O25" s="159"/>
-      <c r="P25" s="159">
+      <c r="O25" s="162"/>
+      <c r="P25" s="162">
         <f>SUM(P11:P19)</f>
         <v>12</v>
       </c>
-      <c r="Q25" s="159"/>
+      <c r="Q25" s="162"/>
     </row>
     <row r="26" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="54">
@@ -7559,34 +7547,34 @@
       <c r="C28" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="159">
+      <c r="D28" s="162">
         <v>50</v>
       </c>
-      <c r="E28" s="159"/>
-      <c r="F28" s="159">
+      <c r="E28" s="162"/>
+      <c r="F28" s="162">
         <v>30</v>
       </c>
-      <c r="G28" s="159"/>
-      <c r="H28" s="159">
+      <c r="G28" s="162"/>
+      <c r="H28" s="162">
         <v>80</v>
       </c>
-      <c r="I28" s="159"/>
-      <c r="J28" s="159">
+      <c r="I28" s="162"/>
+      <c r="J28" s="162">
         <v>100</v>
       </c>
-      <c r="K28" s="159"/>
-      <c r="L28" s="159">
+      <c r="K28" s="162"/>
+      <c r="L28" s="162">
         <v>10</v>
       </c>
-      <c r="M28" s="159"/>
-      <c r="N28" s="159">
+      <c r="M28" s="162"/>
+      <c r="N28" s="162">
         <v>70</v>
       </c>
-      <c r="O28" s="159"/>
-      <c r="P28" s="159">
+      <c r="O28" s="162"/>
+      <c r="P28" s="162">
         <v>40</v>
       </c>
-      <c r="Q28" s="159"/>
+      <c r="Q28" s="162"/>
     </row>
     <row r="29" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
@@ -7848,20 +7836,20 @@
         <f t="shared" ref="R35" si="9">E35+G35+I35+K35+M35+O35+Q35</f>
         <v>1710</v>
       </c>
-      <c r="S35" s="165">
+      <c r="S35" s="159">
         <f>worthsf*R35</f>
         <v>100.88495575221239</v>
       </c>
-      <c r="T35" s="166"/>
+      <c r="T35" s="160"/>
       <c r="U35" s="61">
         <f>U31</f>
         <v>55.25</v>
       </c>
-      <c r="V35" s="167" t="s">
+      <c r="V35" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="W35" s="167"/>
-      <c r="X35" s="167"/>
+      <c r="W35" s="161"/>
+      <c r="X35" s="161"/>
       <c r="Y35" s="62">
         <v>1</v>
       </c>
@@ -7871,17 +7859,81 @@
         <f>Z29</f>
         <v>43.5</v>
       </c>
-      <c r="V36" s="172" t="s">
+      <c r="V36" s="182" t="s">
         <v>34</v>
       </c>
-      <c r="W36" s="172"/>
-      <c r="X36" s="172"/>
+      <c r="W36" s="182"/>
+      <c r="X36" s="182"/>
       <c r="Y36" s="62">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="Y22:Y23"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
     <mergeCell ref="S35:T35"/>
     <mergeCell ref="V35:X35"/>
     <mergeCell ref="V36:X36"/>
@@ -7898,70 +7950,6 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H8:I8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="Y22:Y23"/>
-    <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="L28:M28"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A3:A6">
@@ -7988,7 +7976,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31 D31 H31 J31 L31 N31 P31">
+  <conditionalFormatting sqref="D31 F31 H31 J31 L31 N31 P31">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -8012,6 +8000,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R11:R24">
+    <cfRule type="colorScale" priority="416">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R11 R35 R15 R17 R19:R22">
     <cfRule type="colorScale" priority="21">
       <colorScale>
@@ -8021,16 +8019,6 @@
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R11:R24">
-    <cfRule type="colorScale" priority="416">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -8058,18 +8046,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T5">
     <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T11 U35 T15 T17 T19 T21:T22">
-    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8122,6 +8098,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="U36 T20 T16 T18 T12">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="T23:T24">
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -8152,6 +8140,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="U35 T11 T15 T17 T19 T21:T22">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U35:U36 T11:T12 T15:T20 T22:T23">
     <cfRule type="colorScale" priority="7">
       <colorScale>
@@ -8161,18 +8161,6 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U36 T20 T16 T18 T12">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -8308,14 +8296,14 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="158" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
+      <c r="A3" s="170" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
       <c r="S3" s="85" t="s">
         <v>46</v>
       </c>
@@ -8324,12 +8312,12 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="158"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
+      <c r="A4" s="170"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
       <c r="S4" s="85" t="s">
         <v>47</v>
       </c>
@@ -8350,48 +8338,48 @@
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="182" t="s">
+      <c r="D7" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="182"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="172"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="172"/>
     </row>
     <row r="8" spans="1:26" s="6" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="155">
+      <c r="D8" s="167">
         <v>1</v>
       </c>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155">
+      <c r="E8" s="167"/>
+      <c r="F8" s="167">
         <v>2</v>
       </c>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155">
+      <c r="G8" s="167"/>
+      <c r="H8" s="167">
         <v>3</v>
       </c>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155">
+      <c r="I8" s="167"/>
+      <c r="J8" s="167">
         <v>4</v>
       </c>
-      <c r="K8" s="155"/>
-      <c r="L8" s="155">
+      <c r="K8" s="167"/>
+      <c r="L8" s="167">
         <v>5</v>
       </c>
-      <c r="M8" s="155"/>
-      <c r="N8" s="155">
+      <c r="M8" s="167"/>
+      <c r="N8" s="167">
         <v>6</v>
       </c>
-      <c r="O8" s="155"/>
-      <c r="P8" s="155">
+      <c r="O8" s="167"/>
+      <c r="P8" s="167">
         <v>7</v>
       </c>
-      <c r="Q8" s="155"/>
+      <c r="Q8" s="167"/>
       <c r="Y8" s="105"/>
     </row>
     <row r="9" spans="1:26" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -8400,48 +8388,48 @@
       <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="156" t="s">
+      <c r="D9" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156" t="s">
+      <c r="E9" s="168"/>
+      <c r="F9" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156" t="s">
+      <c r="G9" s="168"/>
+      <c r="H9" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156" t="s">
+      <c r="I9" s="168"/>
+      <c r="J9" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="156"/>
-      <c r="L9" s="156" t="s">
+      <c r="K9" s="168"/>
+      <c r="L9" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="156"/>
-      <c r="N9" s="156" t="s">
+      <c r="M9" s="168"/>
+      <c r="N9" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="156"/>
-      <c r="P9" s="156" t="s">
+      <c r="O9" s="168"/>
+      <c r="P9" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="169" t="s">
+      <c r="Q9" s="168"/>
+      <c r="R9" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="170"/>
-      <c r="T9" s="171" t="s">
+      <c r="S9" s="165"/>
+      <c r="T9" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="U9" s="171"/>
-      <c r="V9" s="171"/>
-      <c r="W9" s="171"/>
-      <c r="X9" s="171" t="s">
+      <c r="U9" s="166"/>
+      <c r="V9" s="166"/>
+      <c r="W9" s="166"/>
+      <c r="X9" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="Y9" s="171"/>
+      <c r="Y9" s="166"/>
       <c r="Z9" s="70" t="s">
         <v>32</v>
       </c>
@@ -8685,10 +8673,10 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
-      <c r="B14" s="168" t="s">
+      <c r="B14" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="168"/>
+      <c r="C14" s="163"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
       <c r="F14" s="38"/>
@@ -8716,7 +8704,7 @@
       <c r="Z14" s="12"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="181"/>
+      <c r="A15" s="174"/>
       <c r="B15" s="46" t="s">
         <v>13</v>
       </c>
@@ -8776,7 +8764,7 @@
         <f t="shared" ref="R15:R19" si="0">E15+G15+I15+K15+M15+O15+Q15</f>
         <v>1900</v>
       </c>
-      <c r="S15" s="180">
+      <c r="S15" s="175">
         <f>worthsf*R15</f>
         <v>112.09439528023599</v>
       </c>
@@ -8797,17 +8785,17 @@
         <f>S15-W15</f>
         <v>32.456386230462229</v>
       </c>
-      <c r="Y15" s="179">
+      <c r="Y15" s="176">
         <f>AVERAGE(X15:X16)</f>
         <v>-8.1843793595934216</v>
       </c>
-      <c r="Z15" s="178" t="str">
+      <c r="Z15" s="177" t="str">
         <f>IF(AND(Y15&lt;0, Y15&lt;Y33),"Redeploy resources", IF(AND(Y15&lt;0, Y15&gt;=Y33),"Reduce Cost",IF(AND(Y15&gt;=0, Y15&lt;Y33),"Increase effort", IF(AND(Y15&gt;=0, Y15&gt;=Y33),"Preserve","error"))))</f>
         <v>Redeploy resources</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="181"/>
+      <c r="A16" s="174"/>
       <c r="C16" s="20"/>
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
@@ -8824,7 +8812,7 @@
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
       <c r="R16" s="102"/>
-      <c r="S16" s="180"/>
+      <c r="S16" s="175"/>
       <c r="T16" s="65">
         <v>70</v>
       </c>
@@ -8842,11 +8830,11 @@
         <f>S15-W16</f>
         <v>-48.825144949649072</v>
       </c>
-      <c r="Y16" s="179"/>
-      <c r="Z16" s="178"/>
+      <c r="Y16" s="176"/>
+      <c r="Z16" s="177"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="181"/>
+      <c r="A17" s="174"/>
       <c r="B17" s="46" t="s">
         <v>14</v>
       </c>
@@ -8906,7 +8894,7 @@
         <f t="shared" si="0"/>
         <v>1220</v>
       </c>
-      <c r="S17" s="180">
+      <c r="S17" s="175">
         <f>worthsf*R17</f>
         <v>71.976401179941007</v>
       </c>
@@ -8927,17 +8915,17 @@
         <f>S17-W17</f>
         <v>-4.0416983675703051</v>
       </c>
-      <c r="Y17" s="179">
+      <c r="Y17" s="176">
         <f>AVERAGE(X17:X18)</f>
         <v>-7.4119589386422362</v>
       </c>
-      <c r="Z17" s="178" t="str">
+      <c r="Z17" s="177" t="str">
         <f>IF(AND(Y17&lt;0, Y17&lt;G45),"Redeploy resources", IF(AND(Y17&lt;0, Y17&gt;=G45),"Reduce Cost",IF(AND(Y17&gt;=0, Y17&lt;G45),"Increase effort", IF(AND(Y17&gt;=0, Y17&gt;=G45),"Preserve","error"))))</f>
         <v>Redeploy resources</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="181"/>
+      <c r="A18" s="174"/>
       <c r="C18" s="12"/>
       <c r="D18" s="16"/>
       <c r="E18" s="17"/>
@@ -8954,7 +8942,7 @@
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="102"/>
-      <c r="S18" s="180"/>
+      <c r="S18" s="175"/>
       <c r="T18" s="65">
         <v>36</v>
       </c>
@@ -8972,11 +8960,11 @@
         <f>S17-W18</f>
         <v>-10.782219509714167</v>
       </c>
-      <c r="Y18" s="179"/>
-      <c r="Z18" s="178"/>
+      <c r="Y18" s="176"/>
+      <c r="Z18" s="177"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="181"/>
+      <c r="A19" s="174"/>
       <c r="B19" s="46" t="s">
         <v>15</v>
       </c>
@@ -9036,7 +9024,7 @@
         <f t="shared" si="0"/>
         <v>2170</v>
       </c>
-      <c r="S19" s="180">
+      <c r="S19" s="175">
         <f>worthsf*R19</f>
         <v>128.02359882005899</v>
       </c>
@@ -9057,11 +9045,11 @@
         <f>S19-W19</f>
         <v>41.145770765760346</v>
       </c>
-      <c r="Y19" s="179">
+      <c r="Y19" s="176">
         <f>AVERAGE(X19:X22)</f>
         <v>13.462907756468937</v>
       </c>
-      <c r="Z19" s="178" t="str">
+      <c r="Z19" s="177" t="str">
         <f>IF(AND(Y19&lt;0, Y19&lt;Y37),"Redeploy resources", IF(AND(Y19&lt;0, Y19&gt;=Y37),"Reduce Cost",IF(AND(Y19&gt;=0, Y19&lt;Y37),"Increase effort", IF(AND(Y19&gt;=0, Y19&gt;=Y37),"Preserve","error"))))</f>
         <v>Preserve</v>
       </c>
@@ -9083,7 +9071,7 @@
       <c r="O20" s="38"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="38"/>
-      <c r="S20" s="180"/>
+      <c r="S20" s="175"/>
       <c r="T20" s="81">
         <v>55</v>
       </c>
@@ -9101,8 +9089,8 @@
         <f>S19-W20</f>
         <v>1.5868172108636003</v>
       </c>
-      <c r="Y20" s="179"/>
-      <c r="Z20" s="178"/>
+      <c r="Y20" s="176"/>
+      <c r="Z20" s="177"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
@@ -9254,41 +9242,41 @@
       <c r="C24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="159">
+      <c r="D24" s="162">
         <f>SUM(D11:D19)</f>
         <v>17</v>
       </c>
-      <c r="E24" s="159"/>
-      <c r="F24" s="159">
+      <c r="E24" s="162"/>
+      <c r="F24" s="162">
         <f>SUM(F11:F19)</f>
         <v>20</v>
       </c>
-      <c r="G24" s="159"/>
-      <c r="H24" s="159">
+      <c r="G24" s="162"/>
+      <c r="H24" s="162">
         <f>SUM(H11:H19)</f>
         <v>18</v>
       </c>
-      <c r="I24" s="159"/>
-      <c r="J24" s="159">
+      <c r="I24" s="162"/>
+      <c r="J24" s="162">
         <f>SUM(J11:J19)</f>
         <v>25</v>
       </c>
-      <c r="K24" s="159"/>
-      <c r="L24" s="159">
+      <c r="K24" s="162"/>
+      <c r="L24" s="162">
         <f>SUM(L11:L19)</f>
         <v>19</v>
       </c>
-      <c r="M24" s="159"/>
-      <c r="N24" s="159">
+      <c r="M24" s="162"/>
+      <c r="N24" s="162">
         <f>SUM(N11:N19)</f>
         <v>19</v>
       </c>
-      <c r="O24" s="159"/>
-      <c r="P24" s="159">
+      <c r="O24" s="162"/>
+      <c r="P24" s="162">
         <f>SUM(P11:P19)</f>
         <v>12</v>
       </c>
-      <c r="Q24" s="159"/>
+      <c r="Q24" s="162"/>
     </row>
     <row r="25" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" s="54">
@@ -9334,34 +9322,34 @@
       <c r="C27" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="159">
+      <c r="D27" s="162">
         <v>50</v>
       </c>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159">
+      <c r="E27" s="162"/>
+      <c r="F27" s="162">
         <v>30</v>
       </c>
-      <c r="G27" s="159"/>
-      <c r="H27" s="159">
+      <c r="G27" s="162"/>
+      <c r="H27" s="162">
         <v>80</v>
       </c>
-      <c r="I27" s="159"/>
-      <c r="J27" s="159">
+      <c r="I27" s="162"/>
+      <c r="J27" s="162">
         <v>100</v>
       </c>
-      <c r="K27" s="159"/>
-      <c r="L27" s="159">
+      <c r="K27" s="162"/>
+      <c r="L27" s="162">
         <v>10</v>
       </c>
-      <c r="M27" s="159"/>
-      <c r="N27" s="159">
+      <c r="M27" s="162"/>
+      <c r="N27" s="162">
         <v>70</v>
       </c>
-      <c r="O27" s="159"/>
-      <c r="P27" s="159">
+      <c r="O27" s="162"/>
+      <c r="P27" s="162">
         <v>40</v>
       </c>
-      <c r="Q27" s="159"/>
+      <c r="Q27" s="162"/>
     </row>
     <row r="28" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
@@ -9623,20 +9611,20 @@
         <f t="shared" ref="R34" si="7">E34+G34+I34+K34+M34+O34+Q34</f>
         <v>1710</v>
       </c>
-      <c r="S34" s="165">
+      <c r="S34" s="159">
         <f>worthsf*R34</f>
         <v>100.88495575221239</v>
       </c>
-      <c r="T34" s="166"/>
+      <c r="T34" s="160"/>
       <c r="U34" s="61">
         <f>U30</f>
         <v>40.75</v>
       </c>
-      <c r="V34" s="167" t="s">
+      <c r="V34" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="W34" s="167"/>
-      <c r="X34" s="167"/>
+      <c r="W34" s="161"/>
+      <c r="X34" s="161"/>
       <c r="Y34" s="62">
         <v>1</v>
       </c>
@@ -9646,11 +9634,11 @@
         <f>Z28</f>
         <v>#REF!</v>
       </c>
-      <c r="V35" s="172" t="s">
+      <c r="V35" s="182" t="s">
         <v>34</v>
       </c>
-      <c r="W35" s="172"/>
-      <c r="X35" s="172"/>
+      <c r="W35" s="182"/>
+      <c r="X35" s="182"/>
       <c r="Y35" s="62">
         <v>2</v>
       </c>
@@ -9683,37 +9671,37 @@
       <c r="H42" s="6"/>
     </row>
     <row r="44" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="F44" s="157" t="s">
+      <c r="F44" s="169" t="s">
         <v>42</v>
       </c>
-      <c r="G44" s="157"/>
-      <c r="H44" s="157"/>
-      <c r="I44" s="157"/>
-      <c r="J44" s="157"/>
-      <c r="K44" s="157"/>
-      <c r="L44" s="157"/>
+      <c r="G44" s="169"/>
+      <c r="H44" s="169"/>
+      <c r="I44" s="169"/>
+      <c r="J44" s="169"/>
+      <c r="K44" s="169"/>
+      <c r="L44" s="169"/>
     </row>
     <row r="45" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="F45" s="158" t="s">
+      <c r="F45" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="G45" s="158"/>
-      <c r="H45" s="158"/>
-      <c r="I45" s="158"/>
-      <c r="J45" s="158"/>
-      <c r="K45" s="158"/>
-      <c r="L45" s="158"/>
+      <c r="G45" s="170"/>
+      <c r="H45" s="170"/>
+      <c r="I45" s="170"/>
+      <c r="J45" s="170"/>
+      <c r="K45" s="170"/>
+      <c r="L45" s="170"/>
     </row>
     <row r="46" spans="3:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="158" t="s">
+      <c r="F46" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="G46" s="158"/>
-      <c r="H46" s="158"/>
-      <c r="I46" s="158"/>
-      <c r="J46" s="158"/>
-      <c r="K46" s="158"/>
-      <c r="L46" s="158"/>
+      <c r="G46" s="170"/>
+      <c r="H46" s="170"/>
+      <c r="I46" s="170"/>
+      <c r="J46" s="170"/>
+      <c r="K46" s="170"/>
+      <c r="L46" s="170"/>
     </row>
     <row r="47" spans="3:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F47" s="3" t="s">
@@ -9722,11 +9710,36 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="F44:L44"/>
-    <mergeCell ref="F45:L45"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
     <mergeCell ref="F46:L46"/>
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="D27:E27"/>
@@ -9742,49 +9755,12 @@
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="F44:L44"/>
+    <mergeCell ref="F45:L45"/>
   </mergeCells>
-  <conditionalFormatting sqref="D30 F30 H30 J30 L30 N30 P30">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D27:Q27">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -9797,8 +9773,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R11 R34 R15 R17 R19:R22">
-    <cfRule type="colorScale" priority="17">
+  <conditionalFormatting sqref="F30 D30 H30 J30 L30 N30 P30">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X33 F44">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9816,6 +9804,18 @@
         <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R11 R34 R15 R17 R19:R22">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -9843,18 +9843,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T5">
     <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T11 U34 T15 T17 T19 T21:T22">
-    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9907,6 +9895,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="U35 T20 T16 T18">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="T23">
     <cfRule type="colorScale" priority="108">
       <colorScale>
@@ -9937,6 +9937,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="T11 U34 T15 T17 T19 T21:T22">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U34:U35 T11 T15:T20 T22">
     <cfRule type="colorScale" priority="5">
       <colorScale>
@@ -9946,18 +9958,6 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U35 T20 T16 T18">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -10009,18 +10009,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X33 F44">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Y15:Y19 Y11 Y21:Y23">
     <cfRule type="colorScale" priority="121">
       <colorScale>
@@ -10048,4 +10036,92 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7B958D-48DC-40C4-BB0F-4495AB273725}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="24.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="286">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="286">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="286">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="286">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="286">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="286">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>